--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-18.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-18.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1093,715 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>目的|もくてき</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eye</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>目|め</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>eye drops</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>目薬|めぐすり</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>the second</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>二番目|にばんめ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>one's superiors</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>目上の人|めうえのひと</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>現代的|げんだいてき</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>社会的|しゃかいてき</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>的|まと</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Western clothes</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>洋服|ようふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>the East</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>東洋|とうよう</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Western food</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>洋食|ようしょく</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>the Atlantic</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>大西洋|たいせいよう</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>clothes</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>服|ふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Western clothes</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>洋服|ようふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>制服|せいふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Japanese clothes</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>和服|わふく</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>cafeteria</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>食堂|しょくどう</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>public hall</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>公会堂|こうかいどう</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dignified; imposing</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>堂々とした|どうどうとした</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>physical labor</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>力仕事|ちからしごと</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>cooperation</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>協力|きょうりょく</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>endeavor</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>努力|どりょく</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sumo wrestler</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>力士|りきし</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>授業|じゅぎょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>教授|きょうじゅ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>to be given</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>授かる|さずかる</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>授業|じゅぎょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>occupation</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>職業|しょくぎょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>産業|さんぎょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>service industry</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>サービス業|サービスぎょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>exam</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>試験|しけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>game; match</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>試合|しあい</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>entrance exam</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>入試|にゅうし</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>to try</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>試みる|こころみる</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>experiment</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>実験|じっけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>経験|けいけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>taking examination</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>受験|じゅけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>to lend</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>貸す|かす</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>lending</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>貸し出し|かしだし</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rental condo</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>賃貸マンション|ちんたいマンション</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>図書館|としょかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>地図|ちず</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>figure</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>図|ず</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>合図|あいず</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>to attempt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>図る|はかる</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Japanese inn</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>旅館|りょかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>movie theater</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>映画館|えいがかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>embassy</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>大使館|たいしかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>to come to an end</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>終わる|おわる</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>終わり|おわり</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>last stop</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>終点|しゅうてん</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>the last...</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>最終～|さいしゅう～</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>homework</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>宿題|しゅくだい</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>boarding house</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>下宿|げしゅく</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>lodging</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>宿泊|しゅくはく</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>inn</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>宿|やど</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>problem; question</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>問題|もんだい</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>topic of conversation</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>話題|わだい</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>題|だい</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>